--- a/frontend/outputs/LP5042246_invoice.xlsx
+++ b/frontend/outputs/LP5042246_invoice.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>84.92056960003185</v>
+        <v>84.9335487490527</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="27" t="n">
-        <v>119.9172494971311</v>
+        <v>119.9612773818691</v>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="27" t="n">
-        <v>134.9228400779697</v>
+        <v>135.0357256267956</v>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="27" t="n">
-        <v>319.9291157639385</v>
+        <v>319.9253384605361</v>
       </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="27" t="n">
-        <v>105.0678296956748</v>
+        <v>105.0366082093176</v>
       </c>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C17" s="27" t="n"/>
       <c r="D17" s="27" t="n">
-        <v>404.9456439193017</v>
+        <v>404.9133323279904</v>
       </c>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>

--- a/frontend/outputs/LP5042246_invoice.xlsx
+++ b/frontend/outputs/LP5042246_invoice.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>84.9335487490527</v>
+        <v>85.06940874629622</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="27" t="n">
-        <v>119.9612773818691</v>
+        <v>119.9183074618111</v>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="27" t="n">
-        <v>135.0357256267956</v>
+        <v>134.9231254002233</v>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="27" t="n">
-        <v>319.9253384605361</v>
+        <v>320.0044062771099</v>
       </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="27" t="n">
-        <v>105.0366082093176</v>
+        <v>105.0548423271367</v>
       </c>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C17" s="27" t="n"/>
       <c r="D17" s="27" t="n">
-        <v>404.9133323279904</v>
+        <v>404.9193123241691</v>
       </c>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>

--- a/frontend/outputs/LP5042246_invoice.xlsx
+++ b/frontend/outputs/LP5042246_invoice.xlsx
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="27" t="n">
-        <v>85.06940874629622</v>
+        <v>84.9879762953037</v>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C13" s="8" t="n"/>
       <c r="D13" s="27" t="n">
-        <v>119.9183074618111</v>
+        <v>119.9770800821299</v>
       </c>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="C14" s="8" t="n"/>
       <c r="D14" s="27" t="n">
-        <v>134.9231254002233</v>
+        <v>135.0465732494491</v>
       </c>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C15" s="8" t="n"/>
       <c r="D15" s="27" t="n">
-        <v>320.0044062771099</v>
+        <v>319.9000717810563</v>
       </c>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C16" s="8" t="n"/>
       <c r="D16" s="27" t="n">
-        <v>105.0548423271367</v>
+        <v>104.9228691664403</v>
       </c>
       <c r="E16" s="27" t="n"/>
       <c r="F16" s="27" t="n"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C17" s="27" t="n"/>
       <c r="D17" s="27" t="n">
-        <v>404.9193123241691</v>
+        <v>405.0653599467536</v>
       </c>
       <c r="E17" s="27" t="n"/>
       <c r="F17" s="27" t="n"/>
